--- a/Final Project_Hypothesis.xlsx
+++ b/Final Project_Hypothesis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarshvirendranigam/Documents/GitHub/DATS-6401-Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4612E5D0-ECC9-254A-98FF-016C19D5BA65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E275E-5FC6-5B4B-B188-DBE27E73A07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Hypothesis</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Yes. Holds True</t>
-  </si>
-  <si>
     <t>H-1</t>
   </si>
   <si>
@@ -77,30 +71,9 @@
     <t>H-7</t>
   </si>
   <si>
-    <t>H-8</t>
-  </si>
-  <si>
-    <t>These days generate 5x more revenue</t>
-  </si>
-  <si>
-    <t>Are there any Holiday Sensitive categories?</t>
-  </si>
-  <si>
-    <t>Electronics and Home Furnishing are the most holiday sensitive categories</t>
-  </si>
-  <si>
     <t>Overall</t>
   </si>
   <si>
-    <t>Campaign Specific</t>
-  </si>
-  <si>
-    <t>Device level distribution of Revenue</t>
-  </si>
-  <si>
-    <t>Paid Vs Organic Performance</t>
-  </si>
-  <si>
     <t>% Add to Cart</t>
   </si>
   <si>
@@ -120,6 +93,12 @@
   </si>
   <si>
     <t>Use of Mobile device outnumbers desktop in terms of visits during Holiday Season</t>
+  </si>
+  <si>
+    <t>Marketing Channel Performance</t>
+  </si>
+  <si>
+    <t>Are there any Holiday Sensitive Brands?</t>
   </si>
 </sst>
 </file>
@@ -173,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,6 +170,43 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -214,44 +230,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,288 +550,229 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="51.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="3"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>28</v>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="16" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A2:A10"/>
+  <mergeCells count="19">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
